--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_7_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_7_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001089473833950638</v>
+        <v>1.157217681013734e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001089473833950638</v>
+        <v>1.157217681013734e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.42976934845</v>
+        <v>36.97775651513302</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[17.876144640593857, 52.983394056306146]</t>
+          <t>[21.415990015176362, 52.539523015089685]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001903119702333367</v>
+        <v>1.869841736201749e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001903119702333367</v>
+        <v>1.869841736201749e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.478026573760963</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8616580451287312, 2.094395102393195]</t>
+          <t>[0.761026448617347, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.618048658813542e-05</v>
+        <v>2.41202418149733e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.618048658813542e-05</v>
+        <v>2.41202418149733e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>55.07766521170137</v>
+        <v>55.17193873429292</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.589871222905046, 65.5654592004977]</t>
+          <t>[46.68816485792445, 63.655712610661396]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.704148513061227e-14</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.704148513061227e-14</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.82666666666682</v>
+        <v>18.76632632632649</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.54000000000014</v>
+        <v>17.08992992993008</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.11333333333351</v>
+        <v>20.44272272272289</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.951353570341709e-06</v>
+        <v>3.958631385136968e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>3.951353570341709e-06</v>
+        <v>3.958631385136968e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.92383313169034</v>
+        <v>33.98026070984773</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[23.109717314819562, 58.73794894856111]</t>
+          <t>[21.194453198445338, 46.76606822125013]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.149870629615137e-05</v>
+        <v>2.818449075014939e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>3.149870629615137e-05</v>
+        <v>2.818449075014939e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.805079262422964</v>
+        <v>1.528342372016656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3270791789938876, 2.283079345852041]</t>
+          <t>[1.0629212381515014, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.299194307691209e-09</v>
+        <v>3.816787774724162e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.299194307691209e-09</v>
+        <v>3.816787774724162e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>52.57048599690874</v>
+        <v>49.07256007429698</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.58880045390186, 62.55217153991561]</t>
+          <t>[40.807787228845314, 57.33733291974865]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>7.926992395823618e-14</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>16.61333333333348</v>
+        <v>17.60216216216231</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.84000000000013</v>
+        <v>15.87919919919933</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.38666666666682</v>
+        <v>19.32512512512529</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.411294081599124e-08</v>
+        <v>2.22655399558791e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.411294081599124e-08</v>
+        <v>2.22655399558791e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>42.66819459560261</v>
+        <v>36.48136257404038</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[29.22872327198541, 56.107665919219805]</t>
+          <t>[19.480735598312968, 53.48198954976778]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.092915892987662e-08</v>
+        <v>8.441652300805735e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>8.092915892987662e-08</v>
+        <v>8.441652300805735e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.767342413731195</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.4151318259413488, 2.1195530015210418]</t>
+          <t>[1.2641844311742716, 2.345974093671657]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.728128916691276e-13</v>
+        <v>2.640630136774291e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>3.728128916691276e-13</v>
+        <v>2.640630136774291e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>48.56437768954415</v>
+        <v>56.19228393490709</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[40.509524929091015, 56.61923044999729]</t>
+          <t>[46.40102746377298, 65.9835404060412]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>16.75333333333348</v>
+        <v>16.57769769769784</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.4466666666668</v>
+        <v>14.57533533533546</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.06000000000016</v>
+        <v>18.58006006006021</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.189902266335757e-06</v>
+        <v>7.04477223856248e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>7.189902266335757e-06</v>
+        <v>7.04477223856248e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>39.13317332382852</v>
+        <v>38.3560826529812</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[20.297462611436018, 57.96888403622101]</t>
+          <t>[19.855199039086806, 56.856966266875595]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001307414042528432</v>
+        <v>0.0001344592113974308</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001307414042528432</v>
+        <v>0.0001344592113974308</v>
       </c>
       <c r="P5" t="n">
-        <v>2.19502669890458</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.6918687163476553, 2.6981846814615045]</t>
+          <t>[1.6038160694001942, 2.5849741353861955]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.543010246824906e-11</v>
+        <v>4.713296419822655e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>2.543010246824906e-11</v>
+        <v>4.713296419822655e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>55.66180752553691</v>
+        <v>53.01813361300882</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.71589722873944, 65.60771782233437]</t>
+          <t>[43.31157091120386, 62.724696314813784]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>2.420286193682841e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>2.420286193682841e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>15.1666666666668</v>
+        <v>15.5066666666668</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.30000000000011</v>
+        <v>13.69057057057069</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.03333333333349</v>
+        <v>17.32276276276291</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.77375475102815e-09</v>
+        <v>7.98399202306399e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>7.77375475102815e-09</v>
+        <v>7.98399202306399e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.60768918069591</v>
+        <v>37.62903622846831</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[31.10532084430659, 64.11005751708524]</t>
+          <t>[20.92606931106912, 54.332003145867496]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.963127045482963e-07</v>
+        <v>4.215682278085886e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>5.963127045482963e-07</v>
+        <v>4.215682278085886e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.031500354573581</v>
+        <v>2.257921446724196</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.679289766783734, 2.383710942363427]</t>
+          <t>[1.8302371615508113, 2.6856057318975806]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>7.327471962526033e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>7.327471962526033e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>54.03469702642374</v>
+        <v>49.64105172904325</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.217891566917174, 62.8515024859303]</t>
+          <t>[41.08241474190389, 58.19968871618261]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>15.77333333333347</v>
+        <v>14.90130130130143</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.46666666666679</v>
+        <v>13.31803803803815</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.08000000000015</v>
+        <v>16.4845645645647</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.029932191926491e-13</v>
+        <v>6.96238500186297e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>7.029932191926491e-13</v>
+        <v>6.96238500186297e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>48.90541771724299</v>
+        <v>45.56743138802615</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.67396630750834, 61.13686912697764]</t>
+          <t>[29.2825137471919, 61.8523490288604]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.885964800469765e-10</v>
+        <v>1.081012084513944e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.885964800469765e-10</v>
+        <v>1.081012084513944e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.157289850212811</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.8931319093704264, 2.4214477910551953]</t>
+          <t>[2.081816152829272, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,27 +1053,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>49.74326632951959</v>
+        <v>52.40944449246702</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.16971760916153, 56.31681504987764]</t>
+          <t>[43.91613799531654, 60.902750989617495]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>15.3066666666668</v>
+        <v>14.24936936936949</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.3266666666668</v>
+        <v>12.94550550550561</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.28666666666681</v>
+        <v>15.55323323323337</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.980356406112605e-09</v>
+        <v>1.649779972634491e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>2.980356406112605e-09</v>
+        <v>1.649779972634491e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>48.51611967866751</v>
+        <v>42.97273722708383</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[31.731614810372406, 65.30062454696262]</t>
+          <t>[25.049902753289786, 60.89557170087788]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.73696963490633e-07</v>
+        <v>1.62134803660674e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>5.73696963490633e-07</v>
+        <v>1.62134803660674e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.509500438002657</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.157289850212811, 2.861711025792504]</t>
+          <t>[1.9937635058818106, 2.7736583788450426]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>55.23310513802653</v>
+        <v>54.90273946781317</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.460607620244296, 64.00560265580876]</t>
+          <t>[45.784311789295145, 64.0211671463312]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>14.00000000000012</v>
+        <v>14.43563563563576</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.69333333333345</v>
+        <v>12.99207207207218</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.3066666666668</v>
+        <v>15.87919919919933</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.919087276926803e-12</v>
+        <v>2.647439867331514e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>3.919087276926803e-12</v>
+        <v>2.647439867331514e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.27608633973132</v>
+        <v>44.0451816813617</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[36.1616860881091, 60.39048659135354]</t>
+          <t>[28.664219490826753, 59.42614387189664]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.157061279068785e-10</v>
+        <v>6.901223135180601e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>3.157061279068785e-10</v>
+        <v>6.901223135180601e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>2.823974177100735</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.547237286694427, 3.1007110675070426]</t>
+          <t>[2.295658295415965, 3.05039526925135]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>56.32868307009323</v>
+        <v>59.02455864341348</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.35875236061305, 63.298613779573415]</t>
+          <t>[50.298266001900245, 67.75085128492671]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>12.83333333333345</v>
+        <v>13.36460460460472</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.80666666666677</v>
+        <v>11.96760760760771</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.86000000000012</v>
+        <v>14.76160160160173</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5.95364979538715e-10</v>
+        <v>4.100100126080974e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>5.95364979538715e-10</v>
+        <v>4.100100126080974e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.20006512471038</v>
+        <v>45.78232803352959</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[30.194675071917416, 52.20545517750334]</t>
+          <t>[30.064595612127533, 61.50006045493164]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.623393863781075e-09</v>
+        <v>4.923645773313723e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.623393863781075e-09</v>
+        <v>4.923645773313723e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.107000542289005</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.421474281387081, -2.792526803190928]</t>
+          <t>[2.547237286694427, 3.352290058785505]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,27 +1311,27 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>55.57755231460167</v>
+        <v>49.5589072812477</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.50898627774686, 62.64611835145648]</t>
+          <t>[40.29132910447974, 58.826485458015654]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.818367926873179e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.818367926873179e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>11.52666666666677</v>
+        <v>12.34014014014024</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.3600000000001</v>
+        <v>10.8500100100101</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.69333333333344</v>
+        <v>13.83027027027039</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.550249149166575e-10</v>
+        <v>1.694957840747691e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>5.550249149166575e-10</v>
+        <v>1.694957840747691e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>42.70066586248535</v>
+        <v>47.1939058351282</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[30.13483272884867, 55.26649899612203]</t>
+          <t>[32.063418967844996, 62.3243927024114]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.735088561716225e-08</v>
+        <v>1.188593496959101e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>1.735088561716225e-08</v>
+        <v>1.188593496959101e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>2.924605773612119</v>
+        <v>2.773658378845043</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.5975530849501194, 3.2516584622741194]</t>
+          <t>[2.408868841491273, 3.138447916198812]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.92310276034723</v>
+        <v>52.80608568266791</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.543062670990125, 60.30314284970433]</t>
+          <t>[44.325045919433094, 61.28712544590273]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>12.18738738738745</v>
+        <v>12.72954954954962</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.00060060060066</v>
+        <v>11.40640640640647</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.37417417417425</v>
+        <v>14.05269269269277</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.106318424705989e-09</v>
+        <v>1.628527313002337e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>3.106318424705989e-09</v>
+        <v>1.628527313002337e-10</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>44.05609677857952</v>
+        <v>43.63201073890214</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[30.63017368713924, 57.482019870019805]</t>
+          <t>[32.28492618373256, 54.97909529407172]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.879516308202824e-08</v>
+        <v>8.131719742010546e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>3.879516308202824e-08</v>
+        <v>8.131719742010546e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>2.962342622303888</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[2.610132034514042, 3.314553210093735]</t>
+          <t>[-3.346000584003544, -2.742211004935235]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,27 +1483,27 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>48.85388119379425</v>
+        <v>53.43964770142848</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.73207702102647, 56.97568536656203]</t>
+          <t>[46.2327089599426, 60.64658644291437]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>12.05045045045052</v>
+        <v>11.04140140140146</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.77237237237243</v>
+        <v>9.94638638638644</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.3285285285286</v>
+        <v>12.13641641641648</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>6.047777343143323e-06</v>
+        <v>1.291411422243982e-12</v>
       </c>
       <c r="I13" t="n">
-        <v>6.047777343143323e-06</v>
+        <v>1.291411422243982e-12</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>40.92366695861163</v>
+        <v>55.20806065717185</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[21.425512946666736, 60.42182097055652]</t>
+          <t>[40.75845998876373, 69.65766132557997]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0001141640809696476</v>
+        <v>9.603424722115506e-10</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001141640809696476</v>
+        <v>9.603424722115506e-10</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.540947811912465</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.031526844905466, -2.0503687789194647]</t>
+          <t>[-2.968632097085851, -2.415158316273234]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.358912982141192e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.358912982141192e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>54.20315289333054</v>
+        <v>64.43085892180876</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.809506980455936, 64.59679880620514]</t>
+          <t>[56.73701316365706, 72.12470467996047]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.090239010181904e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.090239010181904e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>9.220420420420471</v>
+        <v>9.763883883883938</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.440240240240281</v>
+        <v>8.760120120120169</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.00060060060066</v>
+        <v>10.76764764764771</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.422281181717722e-10</v>
+        <v>3.349260202512028e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>1.422281181717722e-10</v>
+        <v>3.349260202512028e-09</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>53.8583328024273</v>
+        <v>46.91367507613551</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[36.778038021376965, 70.93862758347763]</t>
+          <t>[31.436197193271873, 62.39115295899915]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.393329580831278e-08</v>
+        <v>2.180915779081971e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>9.393329580831278e-08</v>
+        <v>2.180915779081971e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.440316215401081</v>
+        <v>-2.075526678047311</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.742211004935235, -2.1384214258669263]</t>
+          <t>[-2.415158316273234, -1.7358950398213873]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T14" t="n">
-        <v>53.10162434810881</v>
+        <v>47.09489096554573</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.43671624192087, 61.76653245429676]</t>
+          <t>[38.75957580528785, 55.43020612580361]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="W14" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="X14" t="n">
-        <v>8.855255255255305</v>
+        <v>7.528228228228269</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.759759759759802</v>
+        <v>6.29633633633637</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.950750750750807</v>
+        <v>8.760120120120167</v>
       </c>
     </row>
     <row r="15">
@@ -1699,53 +1699,53 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.612902866821031e-08</v>
+        <v>8.249423366635256e-11</v>
       </c>
       <c r="I15" t="n">
-        <v>1.612902866821031e-08</v>
+        <v>8.249423366635256e-11</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>42.98137535946103</v>
+        <v>45.48872519953031</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[27.326849080259638, 58.63590163866242]</t>
+          <t>[31.69160735174122, 59.285843047319396]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.547973168536387e-06</v>
+        <v>3.484923927210559e-08</v>
       </c>
       <c r="O15" t="n">
-        <v>1.547973168536387e-06</v>
+        <v>3.484923927210559e-08</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.276789871070081</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.64157940842385, -1.9120003337163118]</t>
+          <t>[-2.490632013656773, -1.886842434588465]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>52.35404933724834</v>
+        <v>56.0685800478829</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[44.157166753290284, 60.5509319212064]</t>
+          <t>[48.9682815072441, 63.16887858852169]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.26186186186191</v>
+        <v>7.938858858858902</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.938138138138181</v>
+        <v>6.843843843843882</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.585585585585639</v>
+        <v>9.033873873873922</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>6.429374233007934e-08</v>
+        <v>2.632376374867018e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>6.429374233007934e-08</v>
+        <v>2.632376374867018e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>47.02735511431872</v>
+        <v>31.2345944566281</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[31.998968655834922, 62.055741572802525]</t>
+          <t>[17.24407631044945, 45.22511260280675]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.108538483229893e-07</v>
+        <v>4.812806279885784e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.108538483229893e-07</v>
+        <v>4.812806279885784e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.610105544182156</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.9748950815359265, -1.2453160068283857]</t>
+          <t>[-2.0377898293555425, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.814126626697998e-11</v>
+        <v>7.214686643663981e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>1.814126626697998e-11</v>
+        <v>7.214686643663981e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>51.23232600226584</v>
+        <v>48.79600444629224</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[41.87949143722208, 60.58516056730959]</t>
+          <t>[40.4076356011457, 57.18437329143879]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.176037128265307e-14</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.176037128265307e-14</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="X16" t="n">
-        <v>5.842642642642677</v>
+        <v>5.475075075075107</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.518918918918944</v>
+        <v>3.558798798798819</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.166366366366409</v>
+        <v>7.391351351351396</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.522045655124373e-09</v>
+        <v>1.210824452924086e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>3.522045655124373e-09</v>
+        <v>1.210824452924086e-07</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>40.59389915287095</v>
+        <v>49.11495052451855</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[27.53996776192014, 53.647830543821755]</t>
+          <t>[31.80872147355572, 66.42117957548137]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1.26838584968425e-07</v>
+        <v>8.227277721317705e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26838584968425e-07</v>
+        <v>8.227277721317705e-07</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.245316006828387</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.597526594618234, -0.8931054190385392]</t>
+          <t>[-1.7987897876410024, -1.0188949146777713]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.736604607482377e-09</v>
+        <v>3.967397077531132e-09</v>
       </c>
       <c r="S17" t="n">
-        <v>6.736604607482377e-09</v>
+        <v>3.967397077531132e-09</v>
       </c>
       <c r="T17" t="n">
-        <v>47.88456635166884</v>
+        <v>55.16311599124216</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[40.64568696924529, 55.123445734092385]</t>
+          <t>[45.10237904522307, 65.22385293726126]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.109423746787797e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.109423746787797e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>4.518918918918946</v>
+        <v>5.110070070070098</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.240840840840858</v>
+        <v>3.695675675675697</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.796996996997033</v>
+        <v>6.524464464464498</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>5.51551504468506e-09</v>
+        <v>6.926457851719192e-08</v>
       </c>
       <c r="I18" t="n">
-        <v>5.51551504468506e-09</v>
+        <v>6.926457851719192e-08</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>44.9305941276294</v>
+        <v>45.30847461101514</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[30.86522503294082, 58.99596322231799]</t>
+          <t>[28.27252388198815, 62.344425340042136]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>7.07069114369574e-08</v>
+        <v>2.781812841190501e-06</v>
       </c>
       <c r="O18" t="n">
-        <v>7.07069114369574e-08</v>
+        <v>2.781812841190501e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.320789704211925</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.6730002920017712, -0.9685791164220783]</t>
+          <t>[-1.534631846798617, -0.7295790747075399]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>9.797636335573401e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>9.797636335573401e-07</v>
       </c>
       <c r="T18" t="n">
-        <v>58.22738979891638</v>
+        <v>56.22604007692266</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[50.09097448876763, 66.36380510906513]</t>
+          <t>[47.0719374167068, 65.38014273713851]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X18" t="n">
-        <v>4.792792792792817</v>
+        <v>4.10630630630633</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.514714714714732</v>
+        <v>2.646286286286303</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.070870870870901</v>
+        <v>5.566326326326356</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_7_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_7_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.157217681013734e-06</v>
+        <v>7.752250619219581e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.157217681013734e-06</v>
+        <v>7.752250619219581e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>36.97775651513302</v>
+        <v>44.40915601286006</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[21.415990015176362, 52.539523015089685]</t>
+          <t>[28.754968639238115, 60.063343386482]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.869841736201749e-05</v>
+        <v>8.289892838853063e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.869841736201749e-05</v>
+        <v>8.289892838853063e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.213868632918579</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 1.6667108172198102]</t>
+          <t>[0.9371317425122703, 1.7170266154755014]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.41202418149733e-06</v>
+        <v>1.67555598284963e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.41202418149733e-06</v>
+        <v>1.67555598284963e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>55.17193873429292</v>
+        <v>44.61068789595183</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.68816485792445, 63.655712610661396]</t>
+          <t>[35.622111439363756, 53.5992643525399]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>5.264677582772492e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>5.264677582772492e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>18.76632632632649</v>
+        <v>18.3393393393395</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.08992992993008</v>
+        <v>16.89639639639654</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.44272272272289</v>
+        <v>19.78228228228245</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.958631385136968e-06</v>
+        <v>1.959125084383118e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.958631385136968e-06</v>
+        <v>1.959125084383118e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>33.98026070984773</v>
+        <v>50.64014348498718</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.194453198445338, 46.76606822125013]</t>
+          <t>[38.507544700620464, 62.772742269353905]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.818449075014939e-06</v>
+        <v>8.889466940331658e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>2.818449075014939e-06</v>
+        <v>8.889466940331658e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.528342372016656</v>
+        <v>1.59123711983627</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 1.9937635058818106]</t>
+          <t>[1.314500229429961, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.816787774724162e-08</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>3.816787774724162e-08</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>49.07256007429698</v>
+        <v>53.31239191764953</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[40.807787228845314, 57.33733291974865]</t>
+          <t>[45.189766215582196, 61.435017619716874]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.60216216216231</v>
+        <v>17.36186186186201</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.87919919919933</v>
+        <v>16.33783783783797</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.32512512512529</v>
+        <v>18.38588588588605</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22655399558791e-05</v>
+        <v>5.311018846931859e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22655399558791e-05</v>
+        <v>5.311018846931859e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>36.48136257404038</v>
+        <v>48.87929808018127</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.480735598312968, 53.48198954976778]</t>
+          <t>[33.92525438628596, 63.83334177407659]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.441652300805735e-05</v>
+        <v>4.237205497581442e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>8.441652300805735e-05</v>
+        <v>4.237205497581442e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>1.805079262422964</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 2.345974093671657]</t>
+          <t>[1.4025528763774249, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.640630136774291e-08</v>
+        <v>1.851852005074761e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>2.640630136774291e-08</v>
+        <v>1.851852005074761e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>56.19228393490709</v>
+        <v>53.04209076885783</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.40102746377298, 65.9835404060412]</t>
+          <t>[44.17778462963055, 61.9063969080851]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>16.57769769769784</v>
+        <v>16.80330330330344</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.57533533533546</v>
+        <v>15.54654654654668</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.58006006006021</v>
+        <v>18.06006006006021</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.04477223856248e-06</v>
+        <v>2.229358418093241e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>7.04477223856248e-06</v>
+        <v>2.229358418093241e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.3560826529812</v>
+        <v>40.63683945251759</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.855199039086806, 56.856966266875595]</t>
+          <t>[22.676718808012083, 58.5969600970231]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001344592113974308</v>
+        <v>3.954315898635485e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001344592113974308</v>
+        <v>3.954315898635485e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.094395102393195</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 2.5849741353861955]</t>
+          <t>[1.503184472888809, 2.4340267406191183]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.713296419822655e-11</v>
+        <v>6.127676144274119e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>4.713296419822655e-11</v>
+        <v>6.127676144274119e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>53.01813361300882</v>
+        <v>52.20157353331071</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.31157091120386, 62.724696314813784]</t>
+          <t>[42.550660780914946, 61.85248628570648]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>3.308464613382966e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>3.308464613382966e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5066666666668</v>
+        <v>15.9654654654656</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.69057057057069</v>
+        <v>14.24324324324336</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.32276276276291</v>
+        <v>17.68768768768784</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.98399202306399e-07</v>
+        <v>6.641766330250931e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>7.98399202306399e-07</v>
+        <v>6.641766330250931e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>37.62903622846831</v>
+        <v>41.09679433682491</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.92606931106912, 54.332003145867496]</t>
+          <t>[23.98083869349921, 58.21274998015062]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.215682278085886e-05</v>
+        <v>1.58478822731567e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>4.215682278085886e-05</v>
+        <v>1.58478822731567e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.257921446724196</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.8302371615508113, 2.6856057318975806]</t>
+          <t>[1.6541318676558863, 2.5346583371305034]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.327471962526033e-14</v>
+        <v>1.95110594347625e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>7.327471962526033e-14</v>
+        <v>1.95110594347625e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>49.64105172904325</v>
+        <v>52.99641038079641</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.08241474190389, 58.19968871618261]</t>
+          <t>[43.76279740616928, 62.23002335542353]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>14.90130130130143</v>
+        <v>15.50000000000013</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.31803803803815</v>
+        <v>13.87087087087099</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.4845645645647</v>
+        <v>17.12912912912928</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.96238500186297e-09</v>
+        <v>1.570045682353083e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>6.96238500186297e-09</v>
+        <v>1.570045682353083e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>45.56743138802615</v>
+        <v>40.33036951640063</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[29.2825137471919, 61.8523490288604]</t>
+          <t>[25.366441056554045, 55.294297976247215]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.081012084513944e-06</v>
+        <v>2.183577523240388e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.081012084513944e-06</v>
+        <v>2.183577523240388e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.434026740619119</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.081816152829272, 2.7862373284089657]</t>
+          <t>[1.8176582119868865, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="T7" t="n">
-        <v>52.40944449246702</v>
+        <v>54.84661545271112</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.91613799531654, 60.902750989617495]</t>
+          <t>[47.139470132824194, 62.55376077259805]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.24936936936949</v>
+        <v>15.1741741741743</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.94550550550561</v>
+        <v>13.82432432432444</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.55323323323337</v>
+        <v>16.52402402402416</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.649779972634491e-07</v>
+        <v>4.43873271471773e-10</v>
       </c>
       <c r="I8" t="n">
-        <v>1.649779972634491e-07</v>
+        <v>4.43873271471773e-10</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.97273722708383</v>
+        <v>46.72992887110941</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[25.049902753289786, 60.89557170087788]</t>
+          <t>[31.84263567489255, 61.61722206732628]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.62134803660674e-05</v>
+        <v>1.036941419396697e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62134803660674e-05</v>
+        <v>1.036941419396697e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>2.383710942363427</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.9937635058818106, 2.7736583788450426]</t>
+          <t>[2.270500396288118, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.90273946781317</v>
+        <v>57.74015088970782</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.784311789295145, 64.0211671463312]</t>
+          <t>[49.84730266739233, 65.63299911202331]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.43563563563576</v>
+        <v>13.59159159159171</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.99207207207218</v>
+        <v>12.33483483483494</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.87919919919933</v>
+        <v>14.84834834834848</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.647439867331514e-08</v>
+        <v>5.370175415464473e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>2.647439867331514e-08</v>
+        <v>5.370175415464473e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>44.0451816813617</v>
+        <v>51.80725769935385</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.664219490826753, 59.42614387189664]</t>
+          <t>[37.151723354668405, 66.4627920440393]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.901223135180601e-07</v>
+        <v>6.769905525061404e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>6.901223135180601e-07</v>
+        <v>6.769905525061404e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>2.673026782333658</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 3.05039526925135]</t>
+          <t>[2.610132034514042, 3.2642374118380437]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>59.02455864341348</v>
+        <v>57.09263011371554</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.298266001900245, 67.75085128492671]</t>
+          <t>[48.22224384817302, 65.96301637925806]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>13.36460460460472</v>
+        <v>12.38138138138148</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.96760760760771</v>
+        <v>11.17117117117126</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.76160160160173</v>
+        <v>13.59159159159171</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.100100126080974e-08</v>
+        <v>2.96954572043262e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>4.100100126080974e-08</v>
+        <v>2.96954572043262e-10</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.78232803352959</v>
+        <v>47.0165589266468</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[30.064595612127533, 61.50006045493164]</t>
+          <t>[33.60120558733167, 60.431912265961934]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.923645773313723e-07</v>
+        <v>8.337160961602308e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>4.923645773313723e-07</v>
+        <v>8.337160961602308e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>2.949763672739966</v>
+        <v>2.899447874484273</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.547237286694427, 3.352290058785505]</t>
+          <t>[2.584974135386196, 3.21392161358235]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,27 +1311,27 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>49.5589072812477</v>
+        <v>53.06306159484654</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.29132910447974, 58.826485458015654]</t>
+          <t>[45.185267114410934, 60.94085607528214]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.818367926873179e-14</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.818367926873179e-14</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.34014014014024</v>
+        <v>12.52102102102113</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.8500100100101</v>
+        <v>11.35735735735746</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.83027027027039</v>
+        <v>13.6846846846848</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.694957840747691e-09</v>
+        <v>3.847612528584676e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>1.694957840747691e-09</v>
+        <v>3.847612528584676e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.1939058351282</v>
+        <v>43.24899108997472</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[32.063418967844996, 62.3243927024114]</t>
+          <t>[27.867937266213808, 58.63004491373564]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.188593496959101e-07</v>
+        <v>9.842336654575234e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>1.188593496959101e-07</v>
+        <v>9.842336654575234e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>2.773658378845043</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 3.138447916198812]</t>
+          <t>[2.408868841491273, 3.213921613582351]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.80608568266791</v>
+        <v>48.37913281279678</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.325045919433094, 61.28712544590273]</t>
+          <t>[39.57186662701851, 57.186398998575044]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>12.72954954954962</v>
+        <v>12.58162162162169</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.40640640640647</v>
+        <v>11.12288288288294</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.05269269269277</v>
+        <v>14.04036036036043</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.628527313002337e-10</v>
+        <v>1.172228980550472e-11</v>
       </c>
       <c r="I12" t="n">
-        <v>1.628527313002337e-10</v>
+        <v>1.172228980550472e-11</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>43.63201073890214</v>
+        <v>53.15835440041683</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[32.28492618373256, 54.97909529407172]</t>
+          <t>[40.902879465835554, 65.4138293349981]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.131719742010546e-10</v>
+        <v>2.99891222965698e-11</v>
       </c>
       <c r="O12" t="n">
-        <v>8.131719742010546e-10</v>
+        <v>2.99891222965698e-11</v>
       </c>
       <c r="P12" t="n">
-        <v>-3.044105794469389</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.346000584003544, -2.742211004935235]</t>
+          <t>[-3.358579533567466, -2.830263651882697]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>53.43964770142848</v>
+        <v>58.28730327585468</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.2327089599426, 60.64658644291437]</t>
+          <t>[50.24203567439838, 66.33257087731099]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.04140140140146</v>
+        <v>11.21405405405411</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.94638638638644</v>
+        <v>10.25675675675681</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.13641641641648</v>
+        <v>12.17135135135141</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.291411422243982e-12</v>
+        <v>2.007353672173195e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>1.291411422243982e-12</v>
+        <v>2.007353672173195e-08</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>55.20806065717185</v>
+        <v>44.95693590702935</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[40.75845998876373, 69.65766132557997]</t>
+          <t>[29.525921187311482, 60.38795062674723]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>9.603424722115506e-10</v>
+        <v>4.902301897757866e-07</v>
       </c>
       <c r="O13" t="n">
-        <v>9.603424722115506e-10</v>
+        <v>4.902301897757866e-07</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.691895206679543</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.968632097085851, -2.415158316273234]</t>
+          <t>[-3.1824742396725427, -2.4277372658371577]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,27 +1569,27 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64.43085892180876</v>
+        <v>54.03364033954693</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[56.73701316365706, 72.12470467996047]</t>
+          <t>[45.17744602929637, 62.8898346497975]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X13" t="n">
-        <v>9.763883883883938</v>
+        <v>10.16558558558564</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.760120120120169</v>
+        <v>8.798018018018066</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.76764764764771</v>
+        <v>11.53315315315321</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.349260202512028e-09</v>
+        <v>2.181788083532865e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>3.349260202512028e-09</v>
+        <v>2.181788083532865e-10</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>46.91367507613551</v>
+        <v>48.54973536501477</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[31.436197193271873, 62.39115295899915]</t>
+          <t>[33.496638312116936, 63.6028324179126]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.180915779081971e-07</v>
+        <v>5.716284512402581e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>2.180915779081971e-07</v>
+        <v>5.716284512402581e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.075526678047311</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.415158316273234, -1.7358950398213873]</t>
+          <t>[-2.465474114528927, -1.8616845354606184]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>47.09489096554573</v>
+        <v>49.36574066106016</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[38.75957580528785, 55.43020612580361]</t>
+          <t>[41.535555410956746, 57.19592591116357]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X14" t="n">
-        <v>7.528228228228269</v>
+        <v>7.840720720720764</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.29633633633637</v>
+        <v>6.746666666666703</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.760120120120167</v>
+        <v>8.934774774774825</v>
       </c>
     </row>
     <row r="15">
@@ -1699,39 +1699,39 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>8.249423366635256e-11</v>
+        <v>1.544425698440932e-10</v>
       </c>
       <c r="I15" t="n">
-        <v>8.249423366635256e-11</v>
+        <v>1.544425698440932e-10</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>45.48872519953031</v>
+        <v>53.54666885523991</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[31.69160735174122, 59.285843047319396]</t>
+          <t>[37.316802701421906, 69.77653500905792]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.484923927210559e-08</v>
+        <v>3.430215866906394e-08</v>
       </c>
       <c r="O15" t="n">
-        <v>3.484923927210559e-08</v>
+        <v>3.430215866906394e-08</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.188737224122619</v>
+        <v>-2.125842476303003</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.490632013656773, -1.886842434588465]</t>
+          <t>[-2.4277372658371577, -1.823947686768848]</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1741,27 +1741,27 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>56.0685800478829</v>
+        <v>53.2952609426783</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[48.9682815072441, 63.16887858852169]</t>
+          <t>[44.77021014816094, 61.82031173719567]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X15" t="n">
-        <v>7.938858858858902</v>
+        <v>7.703963963964002</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.843843843843882</v>
+        <v>6.60990990990994</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.033873873873922</v>
+        <v>8.798018018018064</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.632376374867018e-05</v>
+        <v>6.461409185476441e-11</v>
       </c>
       <c r="I16" t="n">
-        <v>2.632376374867018e-05</v>
+        <v>6.461409185476441e-11</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>31.2345944566281</v>
+        <v>49.41903264557148</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[17.24407631044945, 45.22511260280675]</t>
+          <t>[36.82870454063821, 62.009360750504754]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.812806279885784e-05</v>
+        <v>4.7301917938114e-10</v>
       </c>
       <c r="O16" t="n">
-        <v>4.812806279885784e-05</v>
+        <v>4.7301917938114e-10</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.509473947670772</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.0377898293555425, -0.9811580659860013]</t>
+          <t>[-2.0377898293555416, -1.484316048542925]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>7.214686643663981e-07</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7.214686643663981e-07</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.79600444629224</v>
+        <v>51.77460281530832</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[40.4076356011457, 57.18437329143879]</t>
+          <t>[44.21079425636654, 59.3384113742501]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>5.475075075075107</v>
+        <v>6.381981981982015</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.558798798798819</v>
+        <v>5.379099099099126</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.391351351351396</v>
+        <v>7.384864864864904</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.210824452924086e-07</v>
+        <v>2.241784535783609e-11</v>
       </c>
       <c r="I17" t="n">
-        <v>1.210824452924086e-07</v>
+        <v>2.241784535783609e-11</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>49.11495052451855</v>
+        <v>59.20412070099359</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[31.80872147355572, 66.42117957548137]</t>
+          <t>[44.93597121761083, 73.47227018437636]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>8.227277721317705e-07</v>
+        <v>1.046991382480655e-10</v>
       </c>
       <c r="O17" t="n">
-        <v>8.227277721317705e-07</v>
+        <v>1.046991382480655e-10</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.408842351159387</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, -1.0188949146777713]</t>
+          <t>[-1.7484739893853094, -1.2453160068283866]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.967397077531132e-09</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="S17" t="n">
-        <v>3.967397077531132e-09</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="T17" t="n">
-        <v>55.16311599124216</v>
+        <v>55.67907221917427</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[45.10237904522307, 65.22385293726126]</t>
+          <t>[46.93533896216209, 64.42280547618644]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.109423746787797e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.109423746787797e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.110070070070098</v>
+        <v>5.424684684684713</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.695675675675697</v>
+        <v>4.512972972972999</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.524464464464498</v>
+        <v>6.336396396396428</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>6.926457851719192e-08</v>
+        <v>2.889992423149579e-08</v>
       </c>
       <c r="I18" t="n">
-        <v>6.926457851719192e-08</v>
+        <v>2.889992423149579e-08</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>45.30847461101514</v>
+        <v>43.87178419030018</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[28.27252388198815, 62.344425340042136]</t>
+          <t>[27.305064028968673, 60.43850435163168]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.781812841190501e-06</v>
+        <v>3.005657113197557e-06</v>
       </c>
       <c r="O18" t="n">
-        <v>2.781812841190501e-06</v>
+        <v>3.005657113197557e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.132105460753078</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.534631846798617, -0.7295790747075399]</t>
+          <t>[-1.3585265529036938, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>9.797636335573401e-07</v>
+        <v>9.114549635924618e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>9.797636335573401e-07</v>
+        <v>9.114549635924618e-06</v>
       </c>
       <c r="T18" t="n">
-        <v>56.22604007692266</v>
+        <v>55.39445198429541</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[47.0719374167068, 65.38014273713851]</t>
+          <t>[46.785335729695156, 64.00356823889567]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W18" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X18" t="n">
-        <v>4.10630630630633</v>
+        <v>3.51009009009011</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.646286286286303</v>
+        <v>2.096936936936951</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.566326326326356</v>
+        <v>4.923243243243268</v>
       </c>
     </row>
   </sheetData>
